--- a/6. Test/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
+++ b/6. Test/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\Test\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\6. Test\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="692">
   <si>
     <t>Expected results</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>Kiểm tra phiên đăng nhập</t>
-  </si>
-  <si>
-    <t>Không thể đăng nhập một tài khoản nhiều lần bằng các trình duyệt web khác nhau</t>
   </si>
   <si>
     <t>TC.03.2</t>
@@ -2608,6 +2605,63 @@
 3. Điền thông tin câu hỏi
 4. Điền thông tin câu trả lời
 5. Chọn Lưu</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>View profile</t>
+  </si>
+  <si>
+    <t>Show list question</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>view question</t>
+  </si>
+  <si>
+    <t>Send mail</t>
+  </si>
+  <si>
+    <t>Save question</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Insert-dict</t>
+  </si>
+  <si>
+    <t>Drop-dict</t>
+  </si>
+  <si>
+    <t>Delete question</t>
+  </si>
+  <si>
+    <t>Recover question</t>
+  </si>
+  <si>
+    <t>Create question</t>
+  </si>
+  <si>
+    <t>Create index</t>
+  </si>
+  <si>
+    <t>Update index</t>
+  </si>
+  <si>
+    <t>check info user</t>
+  </si>
+  <si>
+    <t>Login invalid</t>
   </si>
 </sst>
 </file>
@@ -3206,14 +3260,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3225,6 +3282,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3233,26 +3299,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4154,6 +4208,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4374,7 +4429,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4698,6 +4755,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5989,7 +6047,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
@@ -6004,7 +6062,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
@@ -6019,7 +6077,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
@@ -6034,7 +6092,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C24" s="19">
         <v>1.6</v>
@@ -6049,7 +6107,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C25" s="19">
         <v>1.7</v>
@@ -6258,8 +6316,8 @@
   </sheetPr>
   <dimension ref="A4:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6298,7 +6356,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>192</v>
+        <v>690</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="43"/>
@@ -6308,28 +6366,24 @@
         <v>89</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>116</v>
+        <v>691</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -6340,16 +6394,16 @@
         <v>111</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -6357,31 +6411,31 @@
     </row>
     <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -6389,13 +6443,13 @@
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -6409,25 +6463,25 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="43"/>
     </row>
@@ -6441,25 +6495,25 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>132</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>133</v>
       </c>
       <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="D21" s="43"/>
     </row>
@@ -6473,13 +6527,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>147</v>
       </c>
       <c r="D23" s="43"/>
     </row>
@@ -6493,13 +6547,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>162</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>163</v>
       </c>
       <c r="D25" s="43"/>
     </row>
@@ -6513,19 +6567,19 @@
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -6533,25 +6587,25 @@
     </row>
     <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>333</v>
-      </c>
       <c r="C30" s="43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -6565,25 +6619,25 @@
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D33" s="43"/>
     </row>
@@ -6597,13 +6651,13 @@
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" s="43"/>
     </row>
@@ -6617,43 +6671,43 @@
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
@@ -6661,31 +6715,31 @@
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>398</v>
-      </c>
       <c r="C41" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -6693,13 +6747,13 @@
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D44" s="43"/>
     </row>
@@ -6771,6 +6825,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -6781,14 +6843,6 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6803,8 +6857,8 @@
   </sheetPr>
   <dimension ref="A2:J231"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6821,13 +6875,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="55">
         <f>COUNTIF(I13:I231,"&gt;a0")</f>
         <v>45</v>
@@ -6835,11 +6889,11 @@
       <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="93"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
         <v>2</v>
@@ -6847,55 +6901,55 @@
       <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="94"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="55">
         <f>COUNTIF(H12:H231,"Passed")</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="55">
         <f>COUNTIF(H12:H231,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="94" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="55">
         <f>COUNTIF(H12:H231,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="95" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
         <v>4.4444444444444398E-2</v>
@@ -6912,7 +6966,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>93</v>
@@ -6932,7 +6986,7 @@
     </row>
     <row r="11" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B11" s="62" t="s">
-        <v>24</v>
+        <v>673</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -6948,7 +7002,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
@@ -6966,19 +7020,19 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>250</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>16</v>
@@ -7001,82 +7055,82 @@
       <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="84">
         <v>45</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="87" t="s">
+        <v>536</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="F15" s="46"/>
+      <c r="G15" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="33" t="s">
+      <c r="F16" s="46"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="46"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="33" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="2:10" ht="270" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="2:10" ht="270" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="33" t="s">
+      <c r="F19" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="G19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="88"/>
+        <v>121</v>
+      </c>
+      <c r="I19" s="92"/>
       <c r="J19" s="46"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -7102,38 +7156,38 @@
         <v>47</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="G21" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J21" s="46"/>
     </row>
     <row r="22" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="47">
         <v>49</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="46" t="s">
         <v>97</v>
@@ -7146,7 +7200,7 @@
     </row>
     <row r="23" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B23" s="62" t="s">
-        <v>185</v>
+        <v>674</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -7162,7 +7216,7 @@
         <v>111</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
@@ -7173,80 +7227,80 @@
       <c r="J24" s="52"/>
     </row>
     <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="84">
         <v>65</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="2:10" ht="240" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="2:10" ht="240" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="G29" s="85"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="88"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="46"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7262,7 +7316,7 @@
     </row>
     <row r="31" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B31" s="62" t="s">
-        <v>186</v>
+        <v>675</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -7275,10 +7329,10 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
@@ -7289,135 +7343,135 @@
       <c r="J32" s="52"/>
     </row>
     <row r="33" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="83">
+      <c r="B33" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="84">
         <v>73</v>
       </c>
-      <c r="D33" s="89" t="s">
-        <v>557</v>
+      <c r="D33" s="87" t="s">
+        <v>556</v>
       </c>
       <c r="E33" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G35" s="85"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="72" t="s">
+        <v>552</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="G36" s="85"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="72" t="s">
+        <v>553</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="G37" s="85"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="65" t="s">
+        <v>572</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="46"/>
+    </row>
+    <row r="39" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="65" t="s">
+        <v>562</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="G39" s="85"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="65" t="s">
-        <v>551</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="72" t="s">
-        <v>552</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="72" t="s">
-        <v>553</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="G36" s="84"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="72" t="s">
-        <v>554</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="65" t="s">
-        <v>573</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="65" t="s">
-        <v>563</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="65" t="s">
-        <v>564</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="G40" s="85"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="75"/>
-      <c r="I40" s="88"/>
+      <c r="I40" s="92"/>
       <c r="J40" s="46"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B41" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -7428,134 +7482,134 @@
       <c r="J41" s="52"/>
     </row>
     <row r="42" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="83">
+      <c r="B42" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="84">
         <v>77</v>
       </c>
-      <c r="D42" s="89" t="s">
-        <v>575</v>
+      <c r="D42" s="87" t="s">
+        <v>574</v>
       </c>
       <c r="E42" s="65" t="s">
+        <v>557</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="41"/>
+      <c r="I42" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="65" t="s">
         <v>558</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" s="46"/>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="65" t="s">
-        <v>551</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="46"/>
-    </row>
-    <row r="44" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="65" t="s">
+      <c r="F44" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="G44" s="85"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="65" t="s">
         <v>559</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F45" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="65" t="s">
+      <c r="G45" s="85"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="65" t="s">
         <v>560</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F46" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="65" t="s">
+      <c r="G46" s="85"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="65" t="s">
         <v>561</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F47" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="G46" s="84"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="65" t="s">
+      <c r="G47" s="85"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F48" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="65" t="s">
+      <c r="G48" s="85"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="65" t="s">
         <v>563</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="G48" s="84"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="46"/>
-    </row>
-    <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="65" t="s">
-        <v>564</v>
-      </c>
       <c r="F49" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="G49" s="85"/>
+        <v>282</v>
+      </c>
+      <c r="G49" s="86"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="88"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B50" s="62" t="s">
-        <v>187</v>
+        <v>676</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
@@ -7568,10 +7622,10 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B51" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
@@ -7583,19 +7637,19 @@
     </row>
     <row r="52" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="47">
         <v>85</v>
       </c>
       <c r="D52" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="F52" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>294</v>
       </c>
       <c r="G52" s="46" t="s">
         <v>97</v>
@@ -7608,7 +7662,7 @@
     </row>
     <row r="53" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B53" s="62" t="s">
-        <v>46</v>
+        <v>677</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
@@ -7621,7 +7675,7 @@
     </row>
     <row r="54" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B54" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="61" t="s">
         <v>110</v>
@@ -7635,520 +7689,520 @@
       <c r="J54" s="52"/>
     </row>
     <row r="55" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="84">
+        <v>50</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>590</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="93"/>
+      <c r="I55" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="G56" s="85"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="G57" s="85"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="46"/>
+    </row>
+    <row r="58" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="G58" s="85"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="46"/>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="G59" s="85"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G60" s="85"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="G61" s="85"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="G62" s="86"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B63" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="83">
-        <v>50</v>
-      </c>
-      <c r="D55" s="89" t="s">
+      <c r="C63" s="84">
+        <v>86</v>
+      </c>
+      <c r="D63" s="87" t="s">
+        <v>593</v>
+      </c>
+      <c r="E63" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="83" t="s">
+      <c r="F63" s="33"/>
+      <c r="G63" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="80"/>
-      <c r="I55" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="33" t="s">
+      <c r="H63" s="93"/>
+      <c r="I63" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="G64" s="85"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F65" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="G56" s="84"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="46"/>
-    </row>
-    <row r="57" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="33" t="s">
+      <c r="G65" s="85"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F66" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="G57" s="84"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="46"/>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="33" t="s">
+      <c r="G66" s="85"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F67" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="G58" s="84"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="46"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="33" t="s">
+      <c r="G67" s="85"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F68" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="G59" s="84"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="46"/>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="33" t="s">
+      <c r="G68" s="85"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F69" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="G60" s="84"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="46"/>
-    </row>
-    <row r="61" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="33" t="s">
+      <c r="G69" s="85"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F70" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="G61" s="84"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="46"/>
-    </row>
-    <row r="62" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="33" t="s">
+      <c r="G70" s="86"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B71" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="84">
+        <v>87</v>
+      </c>
+      <c r="D71" s="87" t="s">
+        <v>595</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="F71" s="33"/>
+      <c r="G71" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" s="93"/>
+      <c r="I71" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="F72" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="F62" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G62" s="85"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="46"/>
-    </row>
-    <row r="63" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="83">
-        <v>86</v>
-      </c>
-      <c r="D63" s="89" t="s">
-        <v>594</v>
-      </c>
-      <c r="E63" s="33" t="s">
+      <c r="G72" s="85"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="G73" s="85"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" s="85"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="G75" s="85"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G76" s="85"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="G77" s="85"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="G78" s="86"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="84">
+        <v>88</v>
+      </c>
+      <c r="D79" s="87" t="s">
+        <v>596</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="F79" s="33"/>
+      <c r="G79" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="93"/>
+      <c r="I79" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H63" s="80"/>
-      <c r="I63" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="J63" s="46"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="F64" s="33" t="s">
+      <c r="F80" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="G80" s="85"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F81" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="G64" s="84"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="46"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="33" t="s">
+      <c r="G81" s="85"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F82" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="46"/>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="33" t="s">
+      <c r="G82" s="85"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F83" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="46"/>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="33" t="s">
+      <c r="G83" s="85"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F84" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="46"/>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="33" t="s">
+      <c r="G84" s="85"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F85" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="46"/>
-    </row>
-    <row r="69" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="33" t="s">
+      <c r="G85" s="85"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B86" s="86"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F86" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="G69" s="84"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="46"/>
-    </row>
-    <row r="70" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G70" s="85"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B71" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="C71" s="83">
-        <v>87</v>
-      </c>
-      <c r="D71" s="89" t="s">
-        <v>596</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H71" s="80"/>
-      <c r="I71" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="J71" s="46"/>
-    </row>
-    <row r="72" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="G72" s="84"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="46"/>
-    </row>
-    <row r="73" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="G73" s="84"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="46"/>
-    </row>
-    <row r="74" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="G74" s="84"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="46"/>
-    </row>
-    <row r="75" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="G75" s="84"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="46"/>
-    </row>
-    <row r="76" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="G76" s="84"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="46"/>
-    </row>
-    <row r="77" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="46"/>
-    </row>
-    <row r="78" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G78" s="85"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="46"/>
-    </row>
-    <row r="79" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C79" s="83">
-        <v>88</v>
-      </c>
-      <c r="D79" s="89" t="s">
-        <v>597</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="F79" s="33"/>
-      <c r="G79" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="80"/>
-      <c r="I79" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="J79" s="46"/>
-    </row>
-    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="46"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="G81" s="84"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="46"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="G82" s="84"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="87"/>
-      <c r="J82" s="46"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="46"/>
-    </row>
-    <row r="84" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="G84" s="84"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="46"/>
-    </row>
-    <row r="85" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="G85" s="84"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G86" s="85"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="88"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="92"/>
       <c r="J86" s="46"/>
     </row>
     <row r="87" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B87" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" s="61" t="s">
         <v>113</v>
@@ -8163,19 +8217,19 @@
     </row>
     <row r="88" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="47">
         <v>51</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G88" s="46" t="s">
         <v>97</v>
@@ -8188,19 +8242,19 @@
     </row>
     <row r="89" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C89" s="47">
         <v>52</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G89" s="46" t="s">
         <v>97</v>
@@ -8213,19 +8267,19 @@
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" s="47">
         <v>53</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G90" s="46" t="s">
         <v>97</v>
@@ -8238,19 +8292,19 @@
     </row>
     <row r="91" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C91" s="47">
         <v>93</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G91" s="46" t="s">
         <v>97</v>
@@ -8263,7 +8317,7 @@
     </row>
     <row r="92" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B92" s="62" t="s">
-        <v>26</v>
+        <v>678</v>
       </c>
       <c r="C92" s="54"/>
       <c r="D92" s="54"/>
@@ -8276,10 +8330,10 @@
     </row>
     <row r="93" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B93" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="51"/>
       <c r="E93" s="51"/>
@@ -8291,19 +8345,19 @@
     </row>
     <row r="94" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="47">
         <v>54</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F94" s="63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G94" s="46" t="s">
         <v>97</v>
@@ -8316,10 +8370,10 @@
     </row>
     <row r="95" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B95" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C95" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" s="51"/>
       <c r="E95" s="51"/>
@@ -8331,44 +8385,44 @@
     </row>
     <row r="96" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B96" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C96" s="47">
         <v>55</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G96" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H96" s="41"/>
       <c r="I96" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J96" s="46"/>
     </row>
     <row r="97" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C97" s="47">
         <v>94</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G97" s="46" t="s">
         <v>97</v>
@@ -8381,7 +8435,7 @@
     </row>
     <row r="98" spans="2:10" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B98" s="62" t="s">
-        <v>25</v>
+        <v>679</v>
       </c>
       <c r="C98" s="62"/>
       <c r="D98" s="62"/>
@@ -8394,10 +8448,10 @@
     </row>
     <row r="99" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B99" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C99" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D99" s="51"/>
       <c r="E99" s="51"/>
@@ -8409,19 +8463,19 @@
     </row>
     <row r="100" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C100" s="47">
         <v>57</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G100" s="46" t="s">
         <v>97</v>
@@ -8434,19 +8488,19 @@
     </row>
     <row r="101" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C101" s="47">
         <v>58</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G101" s="46" t="s">
         <v>97</v>
@@ -8459,19 +8513,19 @@
     </row>
     <row r="102" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C102" s="47">
         <v>59</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G102" s="46" t="s">
         <v>97</v>
@@ -8484,7 +8538,7 @@
     </row>
     <row r="103" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B103" s="62" t="s">
-        <v>28</v>
+        <v>680</v>
       </c>
       <c r="C103" s="62"/>
       <c r="D103" s="62"/>
@@ -8497,10 +8551,10 @@
     </row>
     <row r="104" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B104" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="51"/>
       <c r="E104" s="51"/>
@@ -8512,19 +8566,19 @@
     </row>
     <row r="105" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B105" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C105" s="47">
         <v>95</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G105" s="46" t="s">
         <v>97</v>
@@ -8537,19 +8591,19 @@
     </row>
     <row r="106" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C106" s="47">
         <v>96</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G106" s="46" t="s">
         <v>97</v>
@@ -8562,7 +8616,7 @@
     </row>
     <row r="107" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B107" s="62" t="s">
-        <v>29</v>
+        <v>681</v>
       </c>
       <c r="C107" s="62"/>
       <c r="D107" s="62"/>
@@ -8575,10 +8629,10 @@
     </row>
     <row r="108" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B108" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C108" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" s="51"/>
       <c r="E108" s="51"/>
@@ -8590,19 +8644,19 @@
     </row>
     <row r="109" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C109" s="47">
         <v>97</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G109" s="46" t="s">
         <v>97</v>
@@ -8615,19 +8669,19 @@
     </row>
     <row r="110" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B110" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C110" s="47">
         <v>98</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F110" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G110" s="46" t="s">
         <v>97</v>
@@ -8640,7 +8694,7 @@
     </row>
     <row r="111" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B111" s="62" t="s">
-        <v>182</v>
+        <v>682</v>
       </c>
       <c r="C111" s="62"/>
       <c r="D111" s="62"/>
@@ -8653,10 +8707,10 @@
     </row>
     <row r="112" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B112" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C112" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D112" s="51"/>
       <c r="E112" s="51"/>
@@ -8668,85 +8722,85 @@
     </row>
     <row r="113" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B113" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C113" s="47">
         <v>99</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G113" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H113" s="41"/>
       <c r="I113" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J113" s="46"/>
     </row>
     <row r="114" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B114" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C114" s="47">
         <v>100</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G114" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H114" s="41"/>
       <c r="I114" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J114" s="46"/>
     </row>
     <row r="115" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C115" s="47">
         <v>101</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G115" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H115" s="41"/>
       <c r="I115" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J115" s="46"/>
     </row>
     <row r="116" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B116" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="61" t="s">
         <v>332</v>
-      </c>
-      <c r="C116" s="61" t="s">
-        <v>333</v>
       </c>
       <c r="D116" s="51"/>
       <c r="E116" s="51"/>
@@ -8757,420 +8811,420 @@
       <c r="J116" s="52"/>
     </row>
     <row r="117" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="83" t="s">
+      <c r="B117" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="90">
+        <v>102</v>
+      </c>
+      <c r="D117" s="87" t="s">
+        <v>620</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="F117" s="33"/>
+      <c r="G117" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H117" s="93"/>
+      <c r="I117" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J117" s="46"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B118" s="85"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F118" s="33"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="94"/>
+      <c r="I118" s="91"/>
+      <c r="J118" s="46"/>
+    </row>
+    <row r="119" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B119" s="85"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="G119" s="85"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="91"/>
+      <c r="J119" s="46"/>
+    </row>
+    <row r="120" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B120" s="85"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="G120" s="85"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="91"/>
+      <c r="J120" s="46"/>
+    </row>
+    <row r="121" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B121" s="85"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="G121" s="85"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="91"/>
+      <c r="J121" s="46"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B122" s="85"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="G122" s="85"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="91"/>
+      <c r="J122" s="46"/>
+    </row>
+    <row r="123" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B123" s="85"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="G123" s="85"/>
+      <c r="H123" s="94"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="46"/>
+    </row>
+    <row r="124" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B124" s="85"/>
+      <c r="C124" s="91"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G124" s="85"/>
+      <c r="H124" s="94"/>
+      <c r="I124" s="91"/>
+      <c r="J124" s="46"/>
+    </row>
+    <row r="125" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="86"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="G125" s="86"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="46"/>
+    </row>
+    <row r="126" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B126" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="86">
-        <v>102</v>
-      </c>
-      <c r="D117" s="89" t="s">
+      <c r="D126" s="87" t="s">
         <v>621</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E126" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="83" t="s">
+      <c r="F126" s="33"/>
+      <c r="G126" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H117" s="80"/>
-      <c r="I117" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J117" s="46"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="84"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="90"/>
-      <c r="E118" s="33" t="s">
+      <c r="H126" s="93"/>
+      <c r="I126" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J126" s="46"/>
+    </row>
+    <row r="127" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B127" s="85"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F127" s="33"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="94"/>
+      <c r="I127" s="91"/>
+      <c r="J127" s="46"/>
+    </row>
+    <row r="128" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B128" s="85"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="F118" s="33"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="81"/>
-      <c r="I118" s="87"/>
-      <c r="J118" s="46"/>
-    </row>
-    <row r="119" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="84"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="33" t="s">
+      <c r="F128" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="F119" s="33" t="s">
+      <c r="G128" s="85"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="91"/>
+      <c r="J128" s="46"/>
+    </row>
+    <row r="129" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B129" s="85"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F129" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="G119" s="84"/>
-      <c r="H119" s="81"/>
-      <c r="I119" s="87"/>
-      <c r="J119" s="46"/>
-    </row>
-    <row r="120" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="84"/>
-      <c r="C120" s="87"/>
-      <c r="D120" s="90"/>
-      <c r="E120" s="33" t="s">
+      <c r="G129" s="85"/>
+      <c r="H129" s="94"/>
+      <c r="I129" s="91"/>
+      <c r="J129" s="46"/>
+    </row>
+    <row r="130" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B130" s="85"/>
+      <c r="D130" s="88"/>
+      <c r="E130" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="F130" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="G120" s="84"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="87"/>
-      <c r="J120" s="46"/>
-    </row>
-    <row r="121" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="84"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="33" t="s">
+      <c r="G130" s="85"/>
+      <c r="H130" s="94"/>
+      <c r="I130" s="91"/>
+      <c r="J130" s="46"/>
+    </row>
+    <row r="131" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B131" s="85"/>
+      <c r="D131" s="88"/>
+      <c r="E131" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F121" s="33" t="s">
+      <c r="F131" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="G121" s="84"/>
-      <c r="H121" s="81"/>
-      <c r="I121" s="87"/>
-      <c r="J121" s="46"/>
-    </row>
-    <row r="122" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B122" s="84"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="90"/>
-      <c r="E122" s="33" t="s">
+      <c r="G131" s="85"/>
+      <c r="H131" s="94"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="46"/>
+    </row>
+    <row r="132" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B132" s="85"/>
+      <c r="D132" s="88"/>
+      <c r="E132" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F122" s="33" t="s">
+      <c r="F132" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="G122" s="84"/>
-      <c r="H122" s="81"/>
-      <c r="I122" s="87"/>
-      <c r="J122" s="46"/>
-    </row>
-    <row r="123" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="84"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="90"/>
-      <c r="E123" s="33" t="s">
+      <c r="G132" s="85"/>
+      <c r="H132" s="94"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="46"/>
+    </row>
+    <row r="133" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="85"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F133" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="G123" s="84"/>
-      <c r="H123" s="81"/>
-      <c r="I123" s="87"/>
-      <c r="J123" s="46"/>
-    </row>
-    <row r="124" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="84"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="90"/>
-      <c r="E124" s="33" t="s">
+      <c r="G133" s="85"/>
+      <c r="H133" s="94"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="46"/>
+    </row>
+    <row r="134" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B134" s="86"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="F124" s="33" t="s">
+      <c r="F134" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="G124" s="84"/>
-      <c r="H124" s="81"/>
-      <c r="I124" s="87"/>
-      <c r="J124" s="46"/>
-    </row>
-    <row r="125" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="85"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G125" s="85"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="88"/>
-      <c r="J125" s="46"/>
-    </row>
-    <row r="126" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B126" s="83" t="s">
+      <c r="G134" s="86"/>
+      <c r="H134" s="95"/>
+      <c r="I134" s="92"/>
+      <c r="J134" s="46"/>
+    </row>
+    <row r="135" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B135" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="D126" s="89" t="s">
+      <c r="C135" s="90">
+        <v>103</v>
+      </c>
+      <c r="D135" s="87" t="s">
         <v>622</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E135" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="F126" s="33"/>
-      <c r="G126" s="83" t="s">
+      <c r="F135" s="33"/>
+      <c r="G135" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H126" s="80"/>
-      <c r="I126" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J126" s="46"/>
-    </row>
-    <row r="127" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B127" s="84"/>
-      <c r="D127" s="90"/>
-      <c r="E127" s="33" t="s">
+      <c r="H135" s="93"/>
+      <c r="I135" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="J135" s="46"/>
+    </row>
+    <row r="136" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B136" s="85"/>
+      <c r="C136" s="91"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F136" s="33"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="94"/>
+      <c r="I136" s="91"/>
+      <c r="J136" s="46"/>
+    </row>
+    <row r="137" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B137" s="85"/>
+      <c r="C137" s="91"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="F127" s="33"/>
-      <c r="G127" s="84"/>
-      <c r="H127" s="81"/>
-      <c r="I127" s="87"/>
-      <c r="J127" s="46"/>
-    </row>
-    <row r="128" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B128" s="84"/>
-      <c r="D128" s="90"/>
-      <c r="E128" s="33" t="s">
+      <c r="F137" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="F128" s="33" t="s">
+      <c r="G137" s="85"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="91"/>
+      <c r="J137" s="46"/>
+    </row>
+    <row r="138" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B138" s="85"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F138" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="G128" s="84"/>
-      <c r="H128" s="81"/>
-      <c r="I128" s="87"/>
-      <c r="J128" s="46"/>
-    </row>
-    <row r="129" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B129" s="84"/>
-      <c r="D129" s="90"/>
-      <c r="E129" s="33" t="s">
+      <c r="G138" s="85"/>
+      <c r="H138" s="94"/>
+      <c r="I138" s="91"/>
+      <c r="J138" s="46"/>
+    </row>
+    <row r="139" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B139" s="85"/>
+      <c r="C139" s="91"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="F129" s="33" t="s">
+      <c r="F139" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="G129" s="84"/>
-      <c r="H129" s="81"/>
-      <c r="I129" s="87"/>
-      <c r="J129" s="46"/>
-    </row>
-    <row r="130" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="84"/>
-      <c r="D130" s="90"/>
-      <c r="E130" s="33" t="s">
+      <c r="G139" s="85"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="91"/>
+      <c r="J139" s="46"/>
+    </row>
+    <row r="140" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B140" s="85"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="88"/>
+      <c r="E140" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F140" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="G130" s="84"/>
-      <c r="H130" s="81"/>
-      <c r="I130" s="87"/>
-      <c r="J130" s="46"/>
-    </row>
-    <row r="131" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="84"/>
-      <c r="D131" s="90"/>
-      <c r="E131" s="33" t="s">
+      <c r="G140" s="85"/>
+      <c r="H140" s="94"/>
+      <c r="I140" s="91"/>
+      <c r="J140" s="46"/>
+    </row>
+    <row r="141" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B141" s="85"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="88"/>
+      <c r="E141" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F131" s="33" t="s">
+      <c r="F141" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="G131" s="84"/>
-      <c r="H131" s="81"/>
-      <c r="I131" s="87"/>
-      <c r="J131" s="46"/>
-    </row>
-    <row r="132" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="84"/>
-      <c r="D132" s="90"/>
-      <c r="E132" s="33" t="s">
+      <c r="G141" s="85"/>
+      <c r="H141" s="94"/>
+      <c r="I141" s="91"/>
+      <c r="J141" s="46"/>
+    </row>
+    <row r="142" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B142" s="85"/>
+      <c r="C142" s="91"/>
+      <c r="D142" s="88"/>
+      <c r="E142" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F132" s="33" t="s">
+      <c r="F142" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="G132" s="84"/>
-      <c r="H132" s="81"/>
-      <c r="I132" s="87"/>
-      <c r="J132" s="46"/>
-    </row>
-    <row r="133" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="84"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="33" t="s">
+      <c r="G142" s="85"/>
+      <c r="H142" s="94"/>
+      <c r="I142" s="91"/>
+      <c r="J142" s="46"/>
+    </row>
+    <row r="143" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B143" s="86"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="F133" s="33" t="s">
+      <c r="F143" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="G133" s="84"/>
-      <c r="H133" s="81"/>
-      <c r="I133" s="87"/>
-      <c r="J133" s="46"/>
-    </row>
-    <row r="134" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="85"/>
-      <c r="D134" s="91"/>
-      <c r="E134" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G134" s="85"/>
-      <c r="H134" s="82"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="46"/>
-    </row>
-    <row r="135" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="C135" s="86">
-        <v>103</v>
-      </c>
-      <c r="D135" s="89" t="s">
-        <v>623</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F135" s="33"/>
-      <c r="G135" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H135" s="80"/>
-      <c r="I135" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J135" s="46"/>
-    </row>
-    <row r="136" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="84"/>
-      <c r="C136" s="87"/>
-      <c r="D136" s="90"/>
-      <c r="E136" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F136" s="33"/>
-      <c r="G136" s="84"/>
-      <c r="H136" s="81"/>
-      <c r="I136" s="87"/>
-      <c r="J136" s="46"/>
-    </row>
-    <row r="137" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B137" s="84"/>
-      <c r="C137" s="87"/>
-      <c r="D137" s="90"/>
-      <c r="E137" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="G137" s="84"/>
-      <c r="H137" s="81"/>
-      <c r="I137" s="87"/>
-      <c r="J137" s="46"/>
-    </row>
-    <row r="138" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B138" s="84"/>
-      <c r="C138" s="87"/>
-      <c r="D138" s="90"/>
-      <c r="E138" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G138" s="84"/>
-      <c r="H138" s="81"/>
-      <c r="I138" s="87"/>
-      <c r="J138" s="46"/>
-    </row>
-    <row r="139" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B139" s="84"/>
-      <c r="C139" s="87"/>
-      <c r="D139" s="90"/>
-      <c r="E139" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="F139" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G139" s="84"/>
-      <c r="H139" s="81"/>
-      <c r="I139" s="87"/>
-      <c r="J139" s="46"/>
-    </row>
-    <row r="140" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B140" s="84"/>
-      <c r="C140" s="87"/>
-      <c r="D140" s="90"/>
-      <c r="E140" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G140" s="84"/>
-      <c r="H140" s="81"/>
-      <c r="I140" s="87"/>
-      <c r="J140" s="46"/>
-    </row>
-    <row r="141" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B141" s="84"/>
-      <c r="C141" s="87"/>
-      <c r="D141" s="90"/>
-      <c r="E141" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G141" s="84"/>
-      <c r="H141" s="81"/>
-      <c r="I141" s="87"/>
-      <c r="J141" s="46"/>
-    </row>
-    <row r="142" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="84"/>
-      <c r="C142" s="87"/>
-      <c r="D142" s="90"/>
-      <c r="E142" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G142" s="84"/>
-      <c r="H142" s="81"/>
-      <c r="I142" s="87"/>
-      <c r="J142" s="46"/>
-    </row>
-    <row r="143" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="85"/>
-      <c r="C143" s="88"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F143" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G143" s="85"/>
-      <c r="H143" s="82"/>
-      <c r="I143" s="88"/>
+      <c r="G143" s="86"/>
+      <c r="H143" s="95"/>
+      <c r="I143" s="92"/>
       <c r="J143" s="46"/>
     </row>
     <row r="144" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B144" s="62" t="s">
-        <v>83</v>
+        <v>683</v>
       </c>
       <c r="C144" s="62"/>
       <c r="D144" s="62"/>
@@ -9183,10 +9237,10 @@
     </row>
     <row r="145" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B145" s="49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C145" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D145" s="51"/>
       <c r="E145" s="51"/>
@@ -9197,86 +9251,86 @@
       <c r="J145" s="52"/>
     </row>
     <row r="146" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="C146" s="83"/>
-      <c r="D146" s="89" t="s">
-        <v>634</v>
+      <c r="B146" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C146" s="84"/>
+      <c r="D146" s="87" t="s">
+        <v>633</v>
       </c>
       <c r="E146" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="F146" s="33"/>
+      <c r="G146" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H146" s="93"/>
+      <c r="I146" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="J146" s="46"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="88"/>
+      <c r="E147" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="F146" s="33"/>
-      <c r="G146" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H146" s="80"/>
-      <c r="I146" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="J146" s="46"/>
-    </row>
-    <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B147" s="84"/>
-      <c r="C147" s="84"/>
-      <c r="D147" s="90"/>
-      <c r="E147" s="33" t="s">
+      <c r="F147" s="33"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="94"/>
+      <c r="I147" s="91"/>
+      <c r="J147" s="46"/>
+    </row>
+    <row r="148" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="88"/>
+      <c r="E148" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F148" s="33"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="94"/>
+      <c r="I148" s="91"/>
+      <c r="J148" s="46"/>
+    </row>
+    <row r="149" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="88"/>
+      <c r="E149" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="F147" s="33"/>
-      <c r="G147" s="84"/>
-      <c r="H147" s="81"/>
-      <c r="I147" s="87"/>
-      <c r="J147" s="46"/>
-    </row>
-    <row r="148" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B148" s="84"/>
-      <c r="C148" s="84"/>
-      <c r="D148" s="90"/>
-      <c r="E148" s="33" t="s">
+      <c r="F149" s="33"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="94"/>
+      <c r="I149" s="91"/>
+      <c r="J149" s="46"/>
+    </row>
+    <row r="150" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B150" s="86"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F150" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="84"/>
-      <c r="H148" s="81"/>
-      <c r="I148" s="87"/>
-      <c r="J148" s="46"/>
-    </row>
-    <row r="149" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B149" s="84"/>
-      <c r="C149" s="84"/>
-      <c r="D149" s="90"/>
-      <c r="E149" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="F149" s="33"/>
-      <c r="G149" s="84"/>
-      <c r="H149" s="81"/>
-      <c r="I149" s="87"/>
-      <c r="J149" s="46"/>
-    </row>
-    <row r="150" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B150" s="85"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="G150" s="85"/>
-      <c r="H150" s="82"/>
-      <c r="I150" s="88"/>
+      <c r="G150" s="86"/>
+      <c r="H150" s="95"/>
+      <c r="I150" s="92"/>
       <c r="J150" s="46"/>
     </row>
     <row r="151" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B151" s="49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C151" s="61" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D151" s="51"/>
       <c r="E151" s="51"/>
@@ -9287,96 +9341,96 @@
       <c r="J151" s="52"/>
     </row>
     <row r="152" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B152" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="C152" s="83"/>
-      <c r="D152" s="89" t="s">
-        <v>638</v>
+      <c r="B152" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C152" s="84"/>
+      <c r="D152" s="87" t="s">
+        <v>637</v>
       </c>
       <c r="E152" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="F152" s="33"/>
+      <c r="G152" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H152" s="93"/>
+      <c r="I152" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="J152" s="46"/>
+    </row>
+    <row r="153" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="88"/>
+      <c r="E153" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F153" s="33"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="94"/>
+      <c r="I153" s="91"/>
+      <c r="J153" s="46"/>
+    </row>
+    <row r="154" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F154" s="33"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="94"/>
+      <c r="I154" s="91"/>
+      <c r="J154" s="46"/>
+    </row>
+    <row r="155" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="F152" s="33"/>
-      <c r="G152" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H152" s="80"/>
-      <c r="I152" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="J152" s="46"/>
-    </row>
-    <row r="153" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B153" s="84"/>
-      <c r="C153" s="84"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F153" s="33"/>
-      <c r="G153" s="84"/>
-      <c r="H153" s="81"/>
-      <c r="I153" s="87"/>
-      <c r="J153" s="46"/>
-    </row>
-    <row r="154" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B154" s="84"/>
-      <c r="C154" s="84"/>
-      <c r="D154" s="90"/>
-      <c r="E154" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F154" s="33"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="81"/>
-      <c r="I154" s="87"/>
-      <c r="J154" s="46"/>
-    </row>
-    <row r="155" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B155" s="84"/>
-      <c r="C155" s="84"/>
-      <c r="D155" s="90"/>
-      <c r="E155" s="33" t="s">
+      <c r="F155" s="33"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="91"/>
+      <c r="J155" s="46"/>
+    </row>
+    <row r="156" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F156" s="33"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="94"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="46"/>
+    </row>
+    <row r="157" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B157" s="86"/>
+      <c r="C157" s="86"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F157" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="F155" s="33"/>
-      <c r="G155" s="84"/>
-      <c r="H155" s="81"/>
-      <c r="I155" s="87"/>
-      <c r="J155" s="46"/>
-    </row>
-    <row r="156" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B156" s="84"/>
-      <c r="C156" s="84"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="F156" s="33"/>
-      <c r="G156" s="84"/>
-      <c r="H156" s="81"/>
-      <c r="I156" s="87"/>
-      <c r="J156" s="46"/>
-    </row>
-    <row r="157" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B157" s="85"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="G157" s="85"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="88"/>
+      <c r="G157" s="86"/>
+      <c r="H157" s="95"/>
+      <c r="I157" s="92"/>
       <c r="J157" s="46"/>
     </row>
     <row r="158" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B158" s="62" t="s">
-        <v>84</v>
+        <v>684</v>
       </c>
       <c r="C158" s="62"/>
       <c r="D158" s="62"/>
@@ -9389,10 +9443,10 @@
     </row>
     <row r="159" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B159" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C159" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D159" s="51"/>
       <c r="E159" s="51"/>
@@ -9403,184 +9457,184 @@
       <c r="J159" s="52"/>
     </row>
     <row r="160" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B160" s="83" t="s">
+      <c r="B160" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="C160" s="84"/>
+      <c r="D160" s="87" t="s">
+        <v>643</v>
+      </c>
+      <c r="E160" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="F160" s="33"/>
+      <c r="G160" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H160" s="93"/>
+      <c r="I160" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="J160" s="46"/>
+    </row>
+    <row r="161" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B161" s="85"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F161" s="33"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="94"/>
+      <c r="I161" s="91"/>
+      <c r="J161" s="46"/>
+    </row>
+    <row r="162" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B162" s="85"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="88"/>
+      <c r="E162" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F162" s="33"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="94"/>
+      <c r="I162" s="91"/>
+      <c r="J162" s="46"/>
+    </row>
+    <row r="163" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B163" s="85"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="88"/>
+      <c r="E163" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F163" s="33"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="94"/>
+      <c r="I163" s="91"/>
+      <c r="J163" s="46"/>
+    </row>
+    <row r="164" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B164" s="85"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="88"/>
+      <c r="E164" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="F164" s="33"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="94"/>
+      <c r="I164" s="91"/>
+      <c r="J164" s="46"/>
+    </row>
+    <row r="165" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B165" s="86"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="89"/>
+      <c r="E165" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="F165" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="G165" s="86"/>
+      <c r="H165" s="95"/>
+      <c r="I165" s="92"/>
+      <c r="J165" s="46"/>
+    </row>
+    <row r="166" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B166" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="C160" s="83"/>
-      <c r="D160" s="89" t="s">
+      <c r="C166" s="84"/>
+      <c r="D166" s="87" t="s">
+        <v>642</v>
+      </c>
+      <c r="E166" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="E160" s="33" t="s">
+      <c r="F166" s="33"/>
+      <c r="G166" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H166" s="93"/>
+      <c r="I166" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="J166" s="46"/>
+    </row>
+    <row r="167" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B167" s="85"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="88"/>
+      <c r="E167" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F167" s="33"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="94"/>
+      <c r="I167" s="91"/>
+      <c r="J167" s="46"/>
+    </row>
+    <row r="168" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B168" s="85"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="88"/>
+      <c r="E168" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F168" s="33"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="94"/>
+      <c r="I168" s="91"/>
+      <c r="J168" s="46"/>
+    </row>
+    <row r="169" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B169" s="85"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="88"/>
+      <c r="E169" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F169" s="33"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="94"/>
+      <c r="I169" s="91"/>
+      <c r="J169" s="46"/>
+    </row>
+    <row r="170" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B170" s="85"/>
+      <c r="C170" s="85"/>
+      <c r="D170" s="88"/>
+      <c r="E170" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="F160" s="33"/>
-      <c r="G160" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H160" s="80"/>
-      <c r="I160" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="J160" s="46"/>
-    </row>
-    <row r="161" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B161" s="84"/>
-      <c r="C161" s="84"/>
-      <c r="D161" s="90"/>
-      <c r="E161" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F161" s="33"/>
-      <c r="G161" s="84"/>
-      <c r="H161" s="81"/>
-      <c r="I161" s="87"/>
-      <c r="J161" s="46"/>
-    </row>
-    <row r="162" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B162" s="84"/>
-      <c r="C162" s="84"/>
-      <c r="D162" s="90"/>
-      <c r="E162" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F162" s="33"/>
-      <c r="G162" s="84"/>
-      <c r="H162" s="81"/>
-      <c r="I162" s="87"/>
-      <c r="J162" s="46"/>
-    </row>
-    <row r="163" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B163" s="84"/>
-      <c r="C163" s="84"/>
-      <c r="D163" s="90"/>
-      <c r="E163" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F163" s="33"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="81"/>
-      <c r="I163" s="87"/>
-      <c r="J163" s="46"/>
-    </row>
-    <row r="164" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B164" s="84"/>
-      <c r="C164" s="84"/>
-      <c r="D164" s="90"/>
-      <c r="E164" s="33" t="s">
+      <c r="F170" s="33"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="94"/>
+      <c r="I170" s="91"/>
+      <c r="J170" s="46"/>
+    </row>
+    <row r="171" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B171" s="86"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="89"/>
+      <c r="E171" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="F164" s="33"/>
-      <c r="G164" s="84"/>
-      <c r="H164" s="81"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="46"/>
-    </row>
-    <row r="165" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B165" s="85"/>
-      <c r="C165" s="85"/>
-      <c r="D165" s="91"/>
-      <c r="E165" s="33" t="s">
+      <c r="F171" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="F165" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="G165" s="85"/>
-      <c r="H165" s="82"/>
-      <c r="I165" s="88"/>
-      <c r="J165" s="46"/>
-    </row>
-    <row r="166" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B166" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="C166" s="83"/>
-      <c r="D166" s="89" t="s">
-        <v>643</v>
-      </c>
-      <c r="E166" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="F166" s="33"/>
-      <c r="G166" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H166" s="80"/>
-      <c r="I166" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="J166" s="46"/>
-    </row>
-    <row r="167" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B167" s="84"/>
-      <c r="C167" s="84"/>
-      <c r="D167" s="90"/>
-      <c r="E167" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F167" s="33"/>
-      <c r="G167" s="84"/>
-      <c r="H167" s="81"/>
-      <c r="I167" s="87"/>
-      <c r="J167" s="46"/>
-    </row>
-    <row r="168" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B168" s="84"/>
-      <c r="C168" s="84"/>
-      <c r="D168" s="90"/>
-      <c r="E168" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F168" s="33"/>
-      <c r="G168" s="84"/>
-      <c r="H168" s="81"/>
-      <c r="I168" s="87"/>
-      <c r="J168" s="46"/>
-    </row>
-    <row r="169" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B169" s="84"/>
-      <c r="C169" s="84"/>
-      <c r="D169" s="90"/>
-      <c r="E169" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F169" s="33"/>
-      <c r="G169" s="84"/>
-      <c r="H169" s="81"/>
-      <c r="I169" s="87"/>
-      <c r="J169" s="46"/>
-    </row>
-    <row r="170" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="84"/>
-      <c r="C170" s="84"/>
-      <c r="D170" s="90"/>
-      <c r="E170" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="F170" s="33"/>
-      <c r="G170" s="84"/>
-      <c r="H170" s="81"/>
-      <c r="I170" s="87"/>
-      <c r="J170" s="46"/>
-    </row>
-    <row r="171" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B171" s="85"/>
-      <c r="C171" s="85"/>
-      <c r="D171" s="91"/>
-      <c r="E171" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="F171" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="G171" s="85"/>
-      <c r="H171" s="82"/>
-      <c r="I171" s="88"/>
+      <c r="G171" s="86"/>
+      <c r="H171" s="95"/>
+      <c r="I171" s="92"/>
       <c r="J171" s="46"/>
     </row>
     <row r="172" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B172" s="62" t="s">
-        <v>27</v>
+        <v>685</v>
       </c>
       <c r="C172" s="62"/>
       <c r="D172" s="62"/>
@@ -9593,10 +9647,10 @@
     </row>
     <row r="173" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B173" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C173" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D173" s="51"/>
       <c r="E173" s="51"/>
@@ -9607,86 +9661,86 @@
       <c r="J173" s="52"/>
     </row>
     <row r="174" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B174" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="C174" s="83"/>
-      <c r="D174" s="89" t="s">
-        <v>649</v>
+      <c r="B174" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="C174" s="84"/>
+      <c r="D174" s="87" t="s">
+        <v>648</v>
       </c>
       <c r="E174" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="F174" s="33"/>
+      <c r="G174" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H174" s="93"/>
+      <c r="I174" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="J174" s="46"/>
+    </row>
+    <row r="175" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B175" s="85"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="88"/>
+      <c r="E175" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="F175" s="33"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="94"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="46"/>
+    </row>
+    <row r="176" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B176" s="85"/>
+      <c r="C176" s="85"/>
+      <c r="D176" s="88"/>
+      <c r="E176" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F176" s="33"/>
+      <c r="G176" s="85"/>
+      <c r="H176" s="94"/>
+      <c r="I176" s="91"/>
+      <c r="J176" s="46"/>
+    </row>
+    <row r="177" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="88"/>
+      <c r="E177" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="F177" s="33"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="94"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="46"/>
+    </row>
+    <row r="178" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B178" s="86"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="89"/>
+      <c r="E178" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="F174" s="33"/>
-      <c r="G174" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H174" s="80"/>
-      <c r="I174" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="J174" s="46"/>
-    </row>
-    <row r="175" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B175" s="84"/>
-      <c r="C175" s="84"/>
-      <c r="D175" s="90"/>
-      <c r="E175" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="F175" s="33"/>
-      <c r="G175" s="84"/>
-      <c r="H175" s="81"/>
-      <c r="I175" s="87"/>
-      <c r="J175" s="46"/>
-    </row>
-    <row r="176" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B176" s="84"/>
-      <c r="C176" s="84"/>
-      <c r="D176" s="90"/>
-      <c r="E176" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F176" s="33"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="81"/>
-      <c r="I176" s="87"/>
-      <c r="J176" s="46"/>
-    </row>
-    <row r="177" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B177" s="84"/>
-      <c r="C177" s="84"/>
-      <c r="D177" s="90"/>
-      <c r="E177" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F177" s="33"/>
-      <c r="G177" s="84"/>
-      <c r="H177" s="81"/>
-      <c r="I177" s="87"/>
-      <c r="J177" s="46"/>
-    </row>
-    <row r="178" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B178" s="85"/>
-      <c r="C178" s="85"/>
-      <c r="D178" s="91"/>
-      <c r="E178" s="33" t="s">
-        <v>647</v>
-      </c>
       <c r="F178" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="G178" s="85"/>
-      <c r="H178" s="82"/>
-      <c r="I178" s="88"/>
+        <v>388</v>
+      </c>
+      <c r="G178" s="86"/>
+      <c r="H178" s="95"/>
+      <c r="I178" s="92"/>
       <c r="J178" s="46"/>
     </row>
     <row r="179" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B179" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C179" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D179" s="51"/>
       <c r="E179" s="51"/>
@@ -9697,86 +9751,86 @@
       <c r="J179" s="52"/>
     </row>
     <row r="180" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B180" s="83" t="s">
-        <v>381</v>
-      </c>
-      <c r="C180" s="83"/>
-      <c r="D180" s="89" t="s">
-        <v>651</v>
+      <c r="B180" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="C180" s="84"/>
+      <c r="D180" s="87" t="s">
+        <v>650</v>
       </c>
       <c r="E180" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F180" s="33"/>
-      <c r="G180" s="83" t="s">
+      <c r="G180" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H180" s="80"/>
-      <c r="I180" s="86" t="s">
-        <v>217</v>
+      <c r="H180" s="93"/>
+      <c r="I180" s="90" t="s">
+        <v>216</v>
       </c>
       <c r="J180" s="46"/>
     </row>
     <row r="181" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B181" s="84"/>
-      <c r="C181" s="84"/>
-      <c r="D181" s="90"/>
+      <c r="B181" s="85"/>
+      <c r="C181" s="85"/>
+      <c r="D181" s="88"/>
       <c r="E181" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F181" s="33"/>
-      <c r="G181" s="84"/>
-      <c r="H181" s="81"/>
-      <c r="I181" s="87"/>
+      <c r="G181" s="85"/>
+      <c r="H181" s="94"/>
+      <c r="I181" s="91"/>
       <c r="J181" s="46"/>
     </row>
     <row r="182" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B182" s="84"/>
-      <c r="C182" s="84"/>
-      <c r="D182" s="90"/>
+      <c r="B182" s="85"/>
+      <c r="C182" s="85"/>
+      <c r="D182" s="88"/>
       <c r="E182" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F182" s="33"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="81"/>
-      <c r="I182" s="87"/>
+      <c r="G182" s="85"/>
+      <c r="H182" s="94"/>
+      <c r="I182" s="91"/>
       <c r="J182" s="46"/>
     </row>
     <row r="183" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B183" s="84"/>
-      <c r="C183" s="84"/>
-      <c r="D183" s="90"/>
+      <c r="B183" s="85"/>
+      <c r="C183" s="85"/>
+      <c r="D183" s="88"/>
       <c r="E183" s="33" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F183" s="33"/>
-      <c r="G183" s="84"/>
-      <c r="H183" s="81"/>
-      <c r="I183" s="87"/>
+      <c r="G183" s="85"/>
+      <c r="H183" s="94"/>
+      <c r="I183" s="91"/>
       <c r="J183" s="46"/>
     </row>
     <row r="184" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B184" s="85"/>
-      <c r="C184" s="85"/>
-      <c r="D184" s="91"/>
+      <c r="B184" s="86"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="89"/>
       <c r="E184" s="33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F184" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="G184" s="85"/>
-      <c r="H184" s="82"/>
-      <c r="I184" s="88"/>
+        <v>388</v>
+      </c>
+      <c r="G184" s="86"/>
+      <c r="H184" s="95"/>
+      <c r="I184" s="92"/>
       <c r="J184" s="46"/>
     </row>
     <row r="185" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B185" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C185" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D185" s="51"/>
       <c r="E185" s="51"/>
@@ -9787,83 +9841,83 @@
       <c r="J185" s="52"/>
     </row>
     <row r="186" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B186" s="83" t="s">
-        <v>406</v>
-      </c>
-      <c r="C186" s="83"/>
-      <c r="D186" s="89" t="s">
-        <v>654</v>
+      <c r="B186" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="C186" s="84"/>
+      <c r="D186" s="87" t="s">
+        <v>653</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F186" s="33"/>
-      <c r="G186" s="83" t="s">
+      <c r="G186" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H186" s="80"/>
-      <c r="I186" s="86" t="s">
-        <v>217</v>
+      <c r="H186" s="93"/>
+      <c r="I186" s="90" t="s">
+        <v>216</v>
       </c>
       <c r="J186" s="46"/>
     </row>
     <row r="187" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B187" s="84"/>
-      <c r="C187" s="84"/>
-      <c r="D187" s="90"/>
+      <c r="B187" s="85"/>
+      <c r="C187" s="85"/>
+      <c r="D187" s="88"/>
       <c r="E187" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F187" s="33"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="81"/>
-      <c r="I187" s="87"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="91"/>
       <c r="J187" s="46"/>
     </row>
     <row r="188" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B188" s="84"/>
-      <c r="C188" s="84"/>
-      <c r="D188" s="90"/>
+      <c r="B188" s="85"/>
+      <c r="C188" s="85"/>
+      <c r="D188" s="88"/>
       <c r="E188" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F188" s="33"/>
-      <c r="G188" s="84"/>
-      <c r="H188" s="81"/>
-      <c r="I188" s="87"/>
+      <c r="G188" s="85"/>
+      <c r="H188" s="94"/>
+      <c r="I188" s="91"/>
       <c r="J188" s="46"/>
     </row>
     <row r="189" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B189" s="84"/>
-      <c r="C189" s="84"/>
-      <c r="D189" s="90"/>
+      <c r="B189" s="85"/>
+      <c r="C189" s="85"/>
+      <c r="D189" s="88"/>
       <c r="E189" s="33" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F189" s="33"/>
-      <c r="G189" s="84"/>
-      <c r="H189" s="81"/>
-      <c r="I189" s="87"/>
+      <c r="G189" s="85"/>
+      <c r="H189" s="94"/>
+      <c r="I189" s="91"/>
       <c r="J189" s="46"/>
     </row>
     <row r="190" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B190" s="85"/>
-      <c r="C190" s="85"/>
-      <c r="D190" s="91"/>
+      <c r="B190" s="86"/>
+      <c r="C190" s="86"/>
+      <c r="D190" s="89"/>
       <c r="E190" s="33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F190" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="G190" s="85"/>
-      <c r="H190" s="82"/>
-      <c r="I190" s="88"/>
+        <v>388</v>
+      </c>
+      <c r="G190" s="86"/>
+      <c r="H190" s="95"/>
+      <c r="I190" s="92"/>
       <c r="J190" s="46"/>
     </row>
     <row r="191" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B191" s="62" t="s">
-        <v>395</v>
+        <v>686</v>
       </c>
       <c r="C191" s="62"/>
       <c r="D191" s="62"/>
@@ -9876,10 +9930,10 @@
     </row>
     <row r="192" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B192" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C192" s="61" t="s">
         <v>397</v>
-      </c>
-      <c r="C192" s="61" t="s">
-        <v>398</v>
       </c>
       <c r="D192" s="51"/>
       <c r="E192" s="51"/>
@@ -9890,236 +9944,236 @@
       <c r="J192" s="52"/>
     </row>
     <row r="193" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B193" s="83" t="s">
+      <c r="B193" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="C193" s="84"/>
+      <c r="D193" s="87" t="s">
+        <v>658</v>
+      </c>
+      <c r="E193" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="F193" s="33"/>
+      <c r="G193" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H193" s="93"/>
+      <c r="I193" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J193" s="46"/>
+    </row>
+    <row r="194" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B194" s="85"/>
+      <c r="C194" s="85"/>
+      <c r="D194" s="88"/>
+      <c r="E194" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="F194" s="33"/>
+      <c r="G194" s="85"/>
+      <c r="H194" s="94"/>
+      <c r="I194" s="91"/>
+      <c r="J194" s="46"/>
+    </row>
+    <row r="195" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B195" s="85"/>
+      <c r="C195" s="85"/>
+      <c r="D195" s="88"/>
+      <c r="E195" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F195" s="33"/>
+      <c r="G195" s="85"/>
+      <c r="H195" s="94"/>
+      <c r="I195" s="91"/>
+      <c r="J195" s="46"/>
+    </row>
+    <row r="196" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B196" s="85"/>
+      <c r="C196" s="85"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="F196" s="33"/>
+      <c r="G196" s="85"/>
+      <c r="H196" s="94"/>
+      <c r="I196" s="91"/>
+      <c r="J196" s="46"/>
+    </row>
+    <row r="197" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B197" s="86"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="89"/>
+      <c r="E197" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="F197" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="G197" s="86"/>
+      <c r="H197" s="95"/>
+      <c r="I197" s="92"/>
+      <c r="J197" s="46"/>
+    </row>
+    <row r="198" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B198" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="C193" s="83"/>
-      <c r="D193" s="89" t="s">
+      <c r="C198" s="84"/>
+      <c r="D198" s="87" t="s">
+        <v>662</v>
+      </c>
+      <c r="E198" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="E193" s="33" t="s">
+      <c r="F198" s="33"/>
+      <c r="G198" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H198" s="93"/>
+      <c r="I198" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J198" s="46"/>
+    </row>
+    <row r="199" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B199" s="85"/>
+      <c r="C199" s="85"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="F193" s="33"/>
-      <c r="G193" s="83" t="s">
+      <c r="F199" s="33"/>
+      <c r="G199" s="85"/>
+      <c r="H199" s="94"/>
+      <c r="I199" s="91"/>
+      <c r="J199" s="46"/>
+    </row>
+    <row r="200" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B200" s="85"/>
+      <c r="C200" s="85"/>
+      <c r="D200" s="88"/>
+      <c r="E200" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F200" s="33"/>
+      <c r="G200" s="85"/>
+      <c r="H200" s="94"/>
+      <c r="I200" s="91"/>
+      <c r="J200" s="46"/>
+    </row>
+    <row r="201" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B201" s="85"/>
+      <c r="C201" s="85"/>
+      <c r="D201" s="88"/>
+      <c r="E201" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="F201" s="33"/>
+      <c r="G201" s="85"/>
+      <c r="H201" s="94"/>
+      <c r="I201" s="91"/>
+      <c r="J201" s="46"/>
+    </row>
+    <row r="202" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B202" s="86"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="89"/>
+      <c r="E202" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="G202" s="86"/>
+      <c r="H202" s="95"/>
+      <c r="I202" s="92"/>
+      <c r="J202" s="46"/>
+    </row>
+    <row r="203" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B203" s="84" t="s">
+        <v>476</v>
+      </c>
+      <c r="C203" s="84"/>
+      <c r="D203" s="87" t="s">
+        <v>661</v>
+      </c>
+      <c r="E203" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="F203" s="33"/>
+      <c r="G203" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H193" s="80"/>
-      <c r="I193" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J193" s="46"/>
-    </row>
-    <row r="194" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B194" s="84"/>
-      <c r="C194" s="84"/>
-      <c r="D194" s="90"/>
-      <c r="E194" s="33" t="s">
+      <c r="H203" s="93"/>
+      <c r="I203" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J203" s="46"/>
+    </row>
+    <row r="204" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B204" s="85"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="F204" s="33"/>
+      <c r="G204" s="85"/>
+      <c r="H204" s="94"/>
+      <c r="I204" s="91"/>
+      <c r="J204" s="46"/>
+    </row>
+    <row r="205" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B205" s="85"/>
+      <c r="C205" s="85"/>
+      <c r="D205" s="88"/>
+      <c r="E205" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F205" s="33"/>
+      <c r="G205" s="85"/>
+      <c r="H205" s="94"/>
+      <c r="I205" s="91"/>
+      <c r="J205" s="46"/>
+    </row>
+    <row r="206" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B206" s="85"/>
+      <c r="C206" s="85"/>
+      <c r="D206" s="88"/>
+      <c r="E206" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="F194" s="33"/>
-      <c r="G194" s="84"/>
-      <c r="H194" s="81"/>
-      <c r="I194" s="87"/>
-      <c r="J194" s="46"/>
-    </row>
-    <row r="195" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="84"/>
-      <c r="C195" s="84"/>
-      <c r="D195" s="90"/>
-      <c r="E195" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F195" s="33"/>
-      <c r="G195" s="84"/>
-      <c r="H195" s="81"/>
-      <c r="I195" s="87"/>
-      <c r="J195" s="46"/>
-    </row>
-    <row r="196" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="84"/>
-      <c r="C196" s="84"/>
-      <c r="D196" s="90"/>
-      <c r="E196" s="33" t="s">
+      <c r="F206" s="33"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="94"/>
+      <c r="I206" s="91"/>
+      <c r="J206" s="46"/>
+    </row>
+    <row r="207" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B207" s="86"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="89"/>
+      <c r="E207" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="F196" s="33"/>
-      <c r="G196" s="84"/>
-      <c r="H196" s="81"/>
-      <c r="I196" s="87"/>
-      <c r="J196" s="46"/>
-    </row>
-    <row r="197" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B197" s="85"/>
-      <c r="C197" s="85"/>
-      <c r="D197" s="91"/>
-      <c r="E197" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="G197" s="85"/>
-      <c r="H197" s="82"/>
-      <c r="I197" s="88"/>
-      <c r="J197" s="46"/>
-    </row>
-    <row r="198" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B198" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="C198" s="83"/>
-      <c r="D198" s="89" t="s">
-        <v>663</v>
-      </c>
-      <c r="E198" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="F198" s="33"/>
-      <c r="G198" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H198" s="80"/>
-      <c r="I198" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J198" s="46"/>
-    </row>
-    <row r="199" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="84"/>
-      <c r="C199" s="84"/>
-      <c r="D199" s="90"/>
-      <c r="E199" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="F199" s="33"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="81"/>
-      <c r="I199" s="87"/>
-      <c r="J199" s="46"/>
-    </row>
-    <row r="200" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B200" s="84"/>
-      <c r="C200" s="84"/>
-      <c r="D200" s="90"/>
-      <c r="E200" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F200" s="33"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="81"/>
-      <c r="I200" s="87"/>
-      <c r="J200" s="46"/>
-    </row>
-    <row r="201" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B201" s="84"/>
-      <c r="C201" s="84"/>
-      <c r="D201" s="90"/>
-      <c r="E201" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="F201" s="33"/>
-      <c r="G201" s="84"/>
-      <c r="H201" s="81"/>
-      <c r="I201" s="87"/>
-      <c r="J201" s="46"/>
-    </row>
-    <row r="202" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B202" s="85"/>
-      <c r="C202" s="85"/>
-      <c r="D202" s="91"/>
-      <c r="E202" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="F202" s="33" t="s">
+      <c r="F207" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="G202" s="85"/>
-      <c r="H202" s="82"/>
-      <c r="I202" s="88"/>
-      <c r="J202" s="46"/>
-    </row>
-    <row r="203" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B203" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="C203" s="83"/>
-      <c r="D203" s="89" t="s">
-        <v>662</v>
-      </c>
-      <c r="E203" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="F203" s="33"/>
-      <c r="G203" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H203" s="80"/>
-      <c r="I203" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J203" s="46"/>
-    </row>
-    <row r="204" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B204" s="84"/>
-      <c r="C204" s="84"/>
-      <c r="D204" s="90"/>
-      <c r="E204" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="F204" s="33"/>
-      <c r="G204" s="84"/>
-      <c r="H204" s="81"/>
-      <c r="I204" s="87"/>
-      <c r="J204" s="46"/>
-    </row>
-    <row r="205" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B205" s="84"/>
-      <c r="C205" s="84"/>
-      <c r="D205" s="90"/>
-      <c r="E205" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F205" s="33"/>
-      <c r="G205" s="84"/>
-      <c r="H205" s="81"/>
-      <c r="I205" s="87"/>
-      <c r="J205" s="46"/>
-    </row>
-    <row r="206" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B206" s="84"/>
-      <c r="C206" s="84"/>
-      <c r="D206" s="90"/>
-      <c r="E206" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="F206" s="33"/>
-      <c r="G206" s="84"/>
-      <c r="H206" s="81"/>
-      <c r="I206" s="87"/>
-      <c r="J206" s="46"/>
-    </row>
-    <row r="207" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B207" s="85"/>
-      <c r="C207" s="85"/>
-      <c r="D207" s="91"/>
-      <c r="E207" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="F207" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="G207" s="85"/>
-      <c r="H207" s="82"/>
-      <c r="I207" s="88"/>
+      <c r="G207" s="86"/>
+      <c r="H207" s="95"/>
+      <c r="I207" s="92"/>
       <c r="J207" s="46"/>
     </row>
     <row r="208" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B208" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C208" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D208" s="51"/>
       <c r="E208" s="51"/>
@@ -10130,184 +10184,184 @@
       <c r="J208" s="52"/>
     </row>
     <row r="209" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B209" s="83" t="s">
-        <v>481</v>
-      </c>
-      <c r="C209" s="83"/>
-      <c r="D209" s="86" t="s">
+      <c r="B209" s="84" t="s">
+        <v>480</v>
+      </c>
+      <c r="C209" s="84"/>
+      <c r="D209" s="90" t="s">
+        <v>663</v>
+      </c>
+      <c r="E209" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="E209" s="33" t="s">
+      <c r="F209" s="33"/>
+      <c r="G209" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H209" s="93"/>
+      <c r="I209" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J209" s="46"/>
+    </row>
+    <row r="210" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B210" s="85"/>
+      <c r="C210" s="85"/>
+      <c r="D210" s="91"/>
+      <c r="E210" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F210" s="33"/>
+      <c r="G210" s="85"/>
+      <c r="H210" s="94"/>
+      <c r="I210" s="91"/>
+      <c r="J210" s="46"/>
+    </row>
+    <row r="211" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B211" s="85"/>
+      <c r="C211" s="85"/>
+      <c r="D211" s="91"/>
+      <c r="E211" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="F211" s="33"/>
+      <c r="G211" s="85"/>
+      <c r="H211" s="94"/>
+      <c r="I211" s="91"/>
+      <c r="J211" s="46"/>
+    </row>
+    <row r="212" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B212" s="85"/>
+      <c r="C212" s="85"/>
+      <c r="D212" s="91"/>
+      <c r="E212" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F212" s="33"/>
+      <c r="G212" s="85"/>
+      <c r="H212" s="94"/>
+      <c r="I212" s="91"/>
+      <c r="J212" s="46"/>
+    </row>
+    <row r="213" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B213" s="85"/>
+      <c r="C213" s="85"/>
+      <c r="D213" s="91"/>
+      <c r="E213" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="F209" s="33"/>
-      <c r="G209" s="83" t="s">
+      <c r="F213" s="33"/>
+      <c r="G213" s="85"/>
+      <c r="H213" s="94"/>
+      <c r="I213" s="91"/>
+      <c r="J213" s="46"/>
+    </row>
+    <row r="214" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B214" s="86"/>
+      <c r="C214" s="86"/>
+      <c r="D214" s="92"/>
+      <c r="E214" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="F214" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="G214" s="86"/>
+      <c r="H214" s="95"/>
+      <c r="I214" s="92"/>
+      <c r="J214" s="46"/>
+    </row>
+    <row r="215" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B215" s="84" t="s">
+        <v>513</v>
+      </c>
+      <c r="C215" s="84"/>
+      <c r="D215" s="90" t="s">
+        <v>671</v>
+      </c>
+      <c r="E215" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="F215" s="33"/>
+      <c r="G215" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H209" s="80"/>
-      <c r="I209" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J209" s="46"/>
-    </row>
-    <row r="210" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B210" s="84"/>
-      <c r="C210" s="84"/>
-      <c r="D210" s="87"/>
-      <c r="E210" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F210" s="33"/>
-      <c r="G210" s="84"/>
-      <c r="H210" s="81"/>
-      <c r="I210" s="87"/>
-      <c r="J210" s="46"/>
-    </row>
-    <row r="211" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B211" s="84"/>
-      <c r="C211" s="84"/>
-      <c r="D211" s="87"/>
-      <c r="E211" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F211" s="33"/>
-      <c r="G211" s="84"/>
-      <c r="H211" s="81"/>
-      <c r="I211" s="87"/>
-      <c r="J211" s="46"/>
-    </row>
-    <row r="212" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B212" s="84"/>
-      <c r="C212" s="84"/>
-      <c r="D212" s="87"/>
-      <c r="E212" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F212" s="33"/>
-      <c r="G212" s="84"/>
-      <c r="H212" s="81"/>
-      <c r="I212" s="87"/>
-      <c r="J212" s="46"/>
-    </row>
-    <row r="213" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B213" s="84"/>
-      <c r="C213" s="84"/>
-      <c r="D213" s="87"/>
-      <c r="E213" s="33" t="s">
+      <c r="H215" s="93"/>
+      <c r="I215" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J215" s="46"/>
+    </row>
+    <row r="216" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B216" s="85"/>
+      <c r="C216" s="85"/>
+      <c r="D216" s="91"/>
+      <c r="E216" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F216" s="33"/>
+      <c r="G216" s="85"/>
+      <c r="H216" s="94"/>
+      <c r="I216" s="91"/>
+      <c r="J216" s="46"/>
+    </row>
+    <row r="217" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B217" s="85"/>
+      <c r="C217" s="85"/>
+      <c r="D217" s="91"/>
+      <c r="E217" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="F217" s="33"/>
+      <c r="G217" s="85"/>
+      <c r="H217" s="94"/>
+      <c r="I217" s="91"/>
+      <c r="J217" s="46"/>
+    </row>
+    <row r="218" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B218" s="85"/>
+      <c r="C218" s="85"/>
+      <c r="D218" s="91"/>
+      <c r="E218" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F218" s="33"/>
+      <c r="G218" s="85"/>
+      <c r="H218" s="94"/>
+      <c r="I218" s="91"/>
+      <c r="J218" s="46"/>
+    </row>
+    <row r="219" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B219" s="85"/>
+      <c r="C219" s="85"/>
+      <c r="D219" s="91"/>
+      <c r="E219" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="F219" s="33"/>
+      <c r="G219" s="85"/>
+      <c r="H219" s="94"/>
+      <c r="I219" s="91"/>
+      <c r="J219" s="46"/>
+    </row>
+    <row r="220" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B220" s="86"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="92"/>
+      <c r="E220" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="F213" s="33"/>
-      <c r="G213" s="84"/>
-      <c r="H213" s="81"/>
-      <c r="I213" s="87"/>
-      <c r="J213" s="46"/>
-    </row>
-    <row r="214" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B214" s="85"/>
-      <c r="C214" s="85"/>
-      <c r="D214" s="88"/>
-      <c r="E214" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="F214" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="G214" s="85"/>
-      <c r="H214" s="82"/>
-      <c r="I214" s="88"/>
-      <c r="J214" s="46"/>
-    </row>
-    <row r="215" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B215" s="83" t="s">
-        <v>514</v>
-      </c>
-      <c r="C215" s="83"/>
-      <c r="D215" s="86" t="s">
-        <v>672</v>
-      </c>
-      <c r="E215" s="33" t="s">
+      <c r="F220" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="F215" s="33"/>
-      <c r="G215" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H215" s="80"/>
-      <c r="I215" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="J215" s="46"/>
-    </row>
-    <row r="216" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B216" s="84"/>
-      <c r="C216" s="84"/>
-      <c r="D216" s="87"/>
-      <c r="E216" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F216" s="33"/>
-      <c r="G216" s="84"/>
-      <c r="H216" s="81"/>
-      <c r="I216" s="87"/>
-      <c r="J216" s="46"/>
-    </row>
-    <row r="217" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B217" s="84"/>
-      <c r="C217" s="84"/>
-      <c r="D217" s="87"/>
-      <c r="E217" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F217" s="33"/>
-      <c r="G217" s="84"/>
-      <c r="H217" s="81"/>
-      <c r="I217" s="87"/>
-      <c r="J217" s="46"/>
-    </row>
-    <row r="218" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B218" s="84"/>
-      <c r="C218" s="84"/>
-      <c r="D218" s="87"/>
-      <c r="E218" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F218" s="33"/>
-      <c r="G218" s="84"/>
-      <c r="H218" s="81"/>
-      <c r="I218" s="87"/>
-      <c r="J218" s="46"/>
-    </row>
-    <row r="219" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B219" s="84"/>
-      <c r="C219" s="84"/>
-      <c r="D219" s="87"/>
-      <c r="E219" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="F219" s="33"/>
-      <c r="G219" s="84"/>
-      <c r="H219" s="81"/>
-      <c r="I219" s="87"/>
-      <c r="J219" s="46"/>
-    </row>
-    <row r="220" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B220" s="85"/>
-      <c r="C220" s="85"/>
-      <c r="D220" s="88"/>
-      <c r="E220" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="F220" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="G220" s="85"/>
-      <c r="H220" s="82"/>
-      <c r="I220" s="88"/>
+      <c r="G220" s="86"/>
+      <c r="H220" s="95"/>
+      <c r="I220" s="92"/>
       <c r="J220" s="46"/>
     </row>
     <row r="221" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B221" s="62" t="s">
-        <v>188</v>
+        <v>687</v>
       </c>
       <c r="C221" s="62"/>
       <c r="D221" s="62"/>
@@ -10320,10 +10374,10 @@
     </row>
     <row r="222" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B222" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C222" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D222" s="51"/>
       <c r="E222" s="51"/>
@@ -10335,30 +10389,30 @@
     </row>
     <row r="223" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B223" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C223" s="46"/>
       <c r="D223" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E223" s="33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F223" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G223" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H223" s="41"/>
       <c r="I223" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J223" s="46"/>
     </row>
     <row r="224" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B224" s="62" t="s">
-        <v>30</v>
+        <v>688</v>
       </c>
       <c r="C224" s="62"/>
       <c r="D224" s="62"/>
@@ -10371,7 +10425,7 @@
     </row>
     <row r="225" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B225" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C225" s="61"/>
       <c r="D225" s="59"/>
@@ -10406,7 +10460,7 @@
     </row>
     <row r="228" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B228" s="62" t="s">
-        <v>31</v>
+        <v>689</v>
       </c>
       <c r="C228" s="62"/>
       <c r="D228" s="62"/>
@@ -10419,7 +10473,7 @@
     </row>
     <row r="229" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B229" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C229" s="61"/>
       <c r="D229" s="59"/>
@@ -10455,117 +10509,15 @@
   </sheetData>
   <autoFilter ref="B10:J225"/>
   <mergeCells count="141">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="G42:G49"/>
-    <mergeCell ref="I42:I49"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="I33:I40"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="G63:G70"/>
-    <mergeCell ref="H63:H70"/>
-    <mergeCell ref="I63:I70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="G55:G62"/>
-    <mergeCell ref="H55:H62"/>
-    <mergeCell ref="I55:I62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="G79:G86"/>
-    <mergeCell ref="H79:H86"/>
-    <mergeCell ref="I79:I86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="G71:G78"/>
-    <mergeCell ref="H71:H78"/>
-    <mergeCell ref="I71:I78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="B117:B125"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="B126:B134"/>
-    <mergeCell ref="C135:C143"/>
-    <mergeCell ref="G126:G134"/>
-    <mergeCell ref="G117:G125"/>
-    <mergeCell ref="H117:H125"/>
-    <mergeCell ref="I117:I125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="I146:I150"/>
-    <mergeCell ref="H146:H150"/>
-    <mergeCell ref="G146:G150"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="C146:C150"/>
-    <mergeCell ref="D146:D150"/>
-    <mergeCell ref="H126:H134"/>
-    <mergeCell ref="I126:I134"/>
-    <mergeCell ref="D126:D134"/>
-    <mergeCell ref="B135:B143"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="G135:G143"/>
-    <mergeCell ref="H135:H143"/>
-    <mergeCell ref="I135:I143"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="H160:H165"/>
-    <mergeCell ref="I160:I165"/>
-    <mergeCell ref="G160:G165"/>
-    <mergeCell ref="D160:D165"/>
-    <mergeCell ref="B160:B165"/>
-    <mergeCell ref="C160:C165"/>
-    <mergeCell ref="I152:I157"/>
-    <mergeCell ref="H152:H157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="I174:I178"/>
-    <mergeCell ref="H174:H178"/>
-    <mergeCell ref="G174:G178"/>
-    <mergeCell ref="D174:D178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="D166:D171"/>
-    <mergeCell ref="G166:G171"/>
-    <mergeCell ref="H166:H171"/>
-    <mergeCell ref="I166:I171"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="D186:D190"/>
-    <mergeCell ref="H186:H190"/>
-    <mergeCell ref="I186:I190"/>
-    <mergeCell ref="G186:G190"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="G180:G184"/>
-    <mergeCell ref="H180:H184"/>
-    <mergeCell ref="I180:I184"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="C180:C184"/>
+    <mergeCell ref="H215:H220"/>
+    <mergeCell ref="G215:G220"/>
+    <mergeCell ref="I215:I220"/>
+    <mergeCell ref="D209:D214"/>
+    <mergeCell ref="B209:B214"/>
+    <mergeCell ref="C209:C214"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="C215:C220"/>
+    <mergeCell ref="D215:D220"/>
     <mergeCell ref="I193:I197"/>
     <mergeCell ref="I198:I202"/>
     <mergeCell ref="I203:I207"/>
@@ -10587,15 +10539,117 @@
     <mergeCell ref="H193:H197"/>
     <mergeCell ref="D193:D197"/>
     <mergeCell ref="C193:C197"/>
-    <mergeCell ref="H215:H220"/>
-    <mergeCell ref="G215:G220"/>
-    <mergeCell ref="I215:I220"/>
-    <mergeCell ref="D209:D214"/>
-    <mergeCell ref="B209:B214"/>
-    <mergeCell ref="C209:C214"/>
-    <mergeCell ref="B215:B220"/>
-    <mergeCell ref="C215:C220"/>
-    <mergeCell ref="D215:D220"/>
+    <mergeCell ref="D186:D190"/>
+    <mergeCell ref="H186:H190"/>
+    <mergeCell ref="I186:I190"/>
+    <mergeCell ref="G186:G190"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="G180:G184"/>
+    <mergeCell ref="H180:H184"/>
+    <mergeCell ref="I180:I184"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="C180:C184"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="I174:I178"/>
+    <mergeCell ref="H174:H178"/>
+    <mergeCell ref="G174:G178"/>
+    <mergeCell ref="D174:D178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="D166:D171"/>
+    <mergeCell ref="G166:G171"/>
+    <mergeCell ref="H166:H171"/>
+    <mergeCell ref="I166:I171"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="H160:H165"/>
+    <mergeCell ref="I160:I165"/>
+    <mergeCell ref="G160:G165"/>
+    <mergeCell ref="D160:D165"/>
+    <mergeCell ref="B160:B165"/>
+    <mergeCell ref="C160:C165"/>
+    <mergeCell ref="I152:I157"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="I146:I150"/>
+    <mergeCell ref="H146:H150"/>
+    <mergeCell ref="G146:G150"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="C146:C150"/>
+    <mergeCell ref="D146:D150"/>
+    <mergeCell ref="H126:H134"/>
+    <mergeCell ref="I126:I134"/>
+    <mergeCell ref="D126:D134"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="G135:G143"/>
+    <mergeCell ref="H135:H143"/>
+    <mergeCell ref="I135:I143"/>
+    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="C135:C143"/>
+    <mergeCell ref="G126:G134"/>
+    <mergeCell ref="G117:G125"/>
+    <mergeCell ref="H117:H125"/>
+    <mergeCell ref="I117:I125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="G79:G86"/>
+    <mergeCell ref="H79:H86"/>
+    <mergeCell ref="I79:I86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="G71:G78"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="I71:I78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="G63:G70"/>
+    <mergeCell ref="H63:H70"/>
+    <mergeCell ref="I63:I70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="G55:G62"/>
+    <mergeCell ref="H55:H62"/>
+    <mergeCell ref="I55:I62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="I42:I49"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="I33:I40"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:H19 H55 H88:H91 H21:H22 H63">
     <cfRule type="containsText" dxfId="119" priority="258" operator="containsText" text="Not Applicable">
@@ -10945,13 +10999,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="55">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -10961,69 +11015,69 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="93"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
         <v>94</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="94"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="55">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="55">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="94" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="55">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="95" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -11040,7 +11094,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>94</v>
@@ -11076,7 +11130,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
@@ -11094,19 +11148,19 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>16</v>
@@ -11136,7 +11190,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>114</v>
@@ -11148,7 +11202,7 @@
         <v>115</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>16</v>
@@ -11157,25 +11211,25 @@
     </row>
     <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="47">
         <v>60</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>16</v>
@@ -11184,25 +11238,25 @@
     </row>
     <row r="17" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="47">
         <v>61</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>16</v>
@@ -11211,25 +11265,25 @@
     </row>
     <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" s="47">
         <v>62</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>16</v>
@@ -11238,25 +11292,25 @@
     </row>
     <row r="19" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="47">
         <v>63</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>16</v>
@@ -11265,25 +11319,25 @@
     </row>
     <row r="20" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="47">
         <v>46</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>16</v>
@@ -11313,46 +11367,46 @@
         <v>47</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>124</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>125</v>
       </c>
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="47">
         <v>49</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F23" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>16</v>
@@ -11361,7 +11415,7 @@
     </row>
     <row r="24" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B24" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -11377,7 +11431,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
@@ -11395,190 +11449,190 @@
         <v>65</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F26" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J26" s="46"/>
     </row>
     <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="47">
         <v>66</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J27" s="46"/>
     </row>
     <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="47">
         <v>67</v>
       </c>
       <c r="D28" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="F28" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="47">
         <v>71</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G29" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="33" t="s">
         <v>216</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="J29" s="46"/>
     </row>
     <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="47">
         <v>68</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B31" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="47">
         <v>69</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J31" s="46"/>
     </row>
     <row r="32" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B32" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="47">
         <v>70</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F32" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J32" s="46"/>
     </row>
     <row r="33" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B33" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
@@ -11591,10 +11645,10 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
@@ -11606,118 +11660,118 @@
     </row>
     <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="47">
         <v>73</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="46"/>
     </row>
     <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="47">
         <v>74</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F36" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J36" s="46"/>
     </row>
     <row r="37" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B37" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="47">
         <v>75</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F37" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J37" s="46"/>
     </row>
     <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="47">
         <v>76</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E38" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
@@ -11729,192 +11783,192 @@
     </row>
     <row r="40" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="47">
         <v>77</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J40" s="46"/>
     </row>
     <row r="41" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="47">
         <v>78</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J41" s="46"/>
     </row>
     <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="47">
         <v>79</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J42" s="46"/>
     </row>
     <row r="43" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" s="47">
         <v>80</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J43" s="46"/>
     </row>
     <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C44" s="47">
         <v>81</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44" s="46"/>
     </row>
     <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C45" s="47">
         <v>82</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F45" s="46"/>
       <c r="G45" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J45" s="46"/>
     </row>
     <row r="46" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C46" s="47">
         <v>83</v>
       </c>
       <c r="D46" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="E46" s="65" t="s">
         <v>489</v>
-      </c>
-      <c r="E46" s="65" t="s">
-        <v>490</v>
       </c>
       <c r="F46" s="46"/>
       <c r="G46" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="H46" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="H46" s="41" t="s">
-        <v>492</v>
-      </c>
       <c r="I46" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J46" s="46"/>
     </row>
     <row r="47" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B47" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -11927,10 +11981,10 @@
     </row>
     <row r="48" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B48" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="51"/>
@@ -11942,25 +11996,25 @@
     </row>
     <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B49" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="47">
         <v>85</v>
       </c>
       <c r="D49" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>293</v>
       </c>
       <c r="F49" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I49" s="33" t="s">
         <v>108</v>
@@ -11982,7 +12036,7 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B51" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="61" t="s">
         <v>110</v>
@@ -11997,223 +12051,223 @@
     </row>
     <row r="52" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="47">
         <v>50</v>
       </c>
       <c r="D52" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="F52" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="47">
         <v>86</v>
       </c>
       <c r="D53" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="33" t="s">
         <v>297</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>298</v>
       </c>
       <c r="F53" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J53" s="46"/>
     </row>
     <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C54" s="47">
         <v>87</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F54" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J54" s="46"/>
     </row>
     <row r="55" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C55" s="47">
         <v>88</v>
       </c>
       <c r="D55" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E55" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>324</v>
       </c>
       <c r="F55" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J55" s="46"/>
     </row>
     <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C56" s="47">
         <v>89</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F56" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J56" s="46"/>
     </row>
     <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C57" s="47">
         <v>90</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F57" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J57" s="46"/>
     </row>
     <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B58" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C58" s="47">
         <v>91</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B59" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C59" s="47">
         <v>92</v>
       </c>
       <c r="D59" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>331</v>
       </c>
       <c r="F59" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J59" s="46"/>
     </row>
     <row r="60" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B60" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="61" t="s">
         <v>113</v>
@@ -12228,25 +12282,25 @@
     </row>
     <row r="61" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C61" s="47">
         <v>51</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F61" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I61" s="33" t="s">
         <v>108</v>
@@ -12255,25 +12309,25 @@
     </row>
     <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62" s="47">
         <v>52</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F62" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>108</v>
@@ -12282,25 +12336,25 @@
     </row>
     <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B63" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="47">
         <v>53</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I63" s="33" t="s">
         <v>108</v>
@@ -12309,25 +12363,25 @@
     </row>
     <row r="64" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B64" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="47">
         <v>93</v>
       </c>
       <c r="D64" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>322</v>
       </c>
       <c r="F64" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I64" s="33" t="s">
         <v>108</v>
@@ -12349,10 +12403,10 @@
     </row>
     <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B66" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="51"/>
       <c r="E66" s="51"/>
@@ -12364,25 +12418,25 @@
     </row>
     <row r="67" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B67" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="47">
         <v>54</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F67" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G67" s="63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I67" s="33" t="s">
         <v>16</v>
@@ -12391,10 +12445,10 @@
     </row>
     <row r="68" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B68" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="51"/>
@@ -12406,52 +12460,52 @@
     </row>
     <row r="69" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B69" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="47">
         <v>55</v>
       </c>
       <c r="D69" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>142</v>
       </c>
       <c r="F69" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G69" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="I69" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="H69" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>144</v>
       </c>
       <c r="J69" s="46"/>
     </row>
     <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B70" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="47">
         <v>94</v>
       </c>
       <c r="D70" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="33" t="s">
         <v>158</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>159</v>
       </c>
       <c r="F70" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I70" s="33" t="s">
         <v>16</v>
@@ -12473,10 +12527,10 @@
     </row>
     <row r="72" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B72" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="51"/>
@@ -12488,25 +12542,25 @@
     </row>
     <row r="73" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="47">
         <v>57</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F73" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I73" s="33" t="s">
         <v>108</v>
@@ -12515,25 +12569,25 @@
     </row>
     <row r="74" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" s="47">
         <v>58</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F74" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I74" s="33" t="s">
         <v>108</v>
@@ -12542,25 +12596,25 @@
     </row>
     <row r="75" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C75" s="47">
         <v>59</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F75" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I75" s="33" t="s">
         <v>108</v>
@@ -12582,10 +12636,10 @@
     </row>
     <row r="77" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B77" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" s="51"/>
       <c r="E77" s="51"/>
@@ -12597,25 +12651,25 @@
     </row>
     <row r="78" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" s="47">
         <v>95</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F78" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>16</v>
@@ -12624,25 +12678,25 @@
     </row>
     <row r="79" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B79" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C79" s="47">
         <v>96</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F79" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I79" s="33" t="s">
         <v>16</v>
@@ -12664,10 +12718,10 @@
     </row>
     <row r="81" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B81" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="51"/>
@@ -12679,25 +12733,25 @@
     </row>
     <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C82" s="47">
         <v>97</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F82" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>16</v>
@@ -12706,25 +12760,25 @@
     </row>
     <row r="83" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B83" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C83" s="47">
         <v>98</v>
       </c>
       <c r="D83" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>177</v>
       </c>
       <c r="F83" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G83" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I83" s="33" t="s">
         <v>16</v>
@@ -12733,7 +12787,7 @@
     </row>
     <row r="84" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B84" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
@@ -12746,10 +12800,10 @@
     </row>
     <row r="85" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B85" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D85" s="51"/>
       <c r="E85" s="51"/>
@@ -12761,91 +12815,91 @@
     </row>
     <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C86" s="47">
         <v>99</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F86" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J86" s="46"/>
     </row>
     <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C87" s="47">
         <v>100</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F87" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J87" s="46"/>
     </row>
     <row r="88" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C88" s="47">
         <v>101</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F88" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J88" s="46"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B89" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" s="61" t="s">
         <v>332</v>
-      </c>
-      <c r="C89" s="61" t="s">
-        <v>333</v>
       </c>
       <c r="D89" s="51"/>
       <c r="E89" s="51"/>
@@ -12857,163 +12911,163 @@
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C90" s="74">
         <v>102</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F90" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J90" s="46"/>
     </row>
     <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C91" s="74">
         <v>103</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F91" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J91" s="46"/>
     </row>
     <row r="92" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C92" s="74">
         <v>104</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F92" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J92" s="46"/>
     </row>
     <row r="93" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C93" s="74">
         <v>105</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F93" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J93" s="46"/>
     </row>
     <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C94" s="74">
         <v>106</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F94" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J94" s="46"/>
     </row>
     <row r="95" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B95" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C95" s="74">
         <v>107</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F95" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H95" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J95" s="46"/>
     </row>
@@ -13032,10 +13086,10 @@
     </row>
     <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B97" s="49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C97" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D97" s="51"/>
       <c r="E97" s="51"/>
@@ -13047,23 +13101,23 @@
     </row>
     <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C98" s="46"/>
       <c r="D98" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F98" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I98" s="33" t="s">
         <v>108</v>
@@ -13072,23 +13126,23 @@
     </row>
     <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C99" s="46"/>
       <c r="D99" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F99" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I99" s="33" t="s">
         <v>108</v>
@@ -13097,23 +13151,23 @@
     </row>
     <row r="100" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C100" s="46"/>
       <c r="D100" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F100" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I100" s="33" t="s">
         <v>108</v>
@@ -13122,10 +13176,10 @@
     </row>
     <row r="101" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B101" s="49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C101" s="61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D101" s="51"/>
       <c r="E101" s="51"/>
@@ -13137,76 +13191,76 @@
     </row>
     <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C102" s="46"/>
       <c r="D102" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F102" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J102" s="46"/>
     </row>
     <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C103" s="46"/>
       <c r="D103" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F103" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J103" s="46"/>
     </row>
     <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B104" s="46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C104" s="46"/>
       <c r="D104" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F104" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I104" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J104" s="46"/>
     </row>
@@ -13225,10 +13279,10 @@
     </row>
     <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B106" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C106" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D106" s="51"/>
       <c r="E106" s="51"/>
@@ -13240,23 +13294,23 @@
     </row>
     <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" s="46"/>
       <c r="D107" s="46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F107" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H107" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I107" s="33" t="s">
         <v>108</v>
@@ -13265,23 +13319,23 @@
     </row>
     <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" s="46"/>
       <c r="D108" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F108" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I108" s="33" t="s">
         <v>108</v>
@@ -13290,23 +13344,23 @@
     </row>
     <row r="109" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C109" s="46"/>
       <c r="D109" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F109" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I109" s="33" t="s">
         <v>108</v>
@@ -13315,23 +13369,23 @@
     </row>
     <row r="110" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B110" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C110" s="46"/>
       <c r="D110" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F110" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I110" s="33" t="s">
         <v>108</v>
@@ -13340,23 +13394,23 @@
     </row>
     <row r="111" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B111" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C111" s="46"/>
       <c r="D111" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>420</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>421</v>
       </c>
       <c r="F111" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H111" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I111" s="33" t="s">
         <v>108</v>
@@ -13365,23 +13419,23 @@
     </row>
     <row r="112" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B112" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F112" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H112" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I112" s="33" t="s">
         <v>108</v>
@@ -13403,10 +13457,10 @@
     </row>
     <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B114" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C114" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D114" s="51"/>
       <c r="E114" s="51"/>
@@ -13418,85 +13472,85 @@
     </row>
     <row r="115" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C115" s="46"/>
       <c r="D115" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F115" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H115" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I115" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J115" s="46"/>
     </row>
     <row r="116" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F116" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H116" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I116" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J116" s="46"/>
     </row>
     <row r="117" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B117" s="46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C117" s="46"/>
       <c r="D117" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F117" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H117" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I117" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J117" s="46"/>
     </row>
     <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B118" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C118" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D118" s="51"/>
       <c r="E118" s="51"/>
@@ -13508,85 +13562,85 @@
     </row>
     <row r="119" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F119" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H119" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I119" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J119" s="46"/>
     </row>
     <row r="120" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F120" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H120" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I120" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J120" s="46"/>
     </row>
     <row r="121" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B121" s="46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C121" s="46"/>
       <c r="D121" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F121" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H121" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I121" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J121" s="46"/>
     </row>
     <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B122" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D122" s="51"/>
       <c r="E122" s="51"/>
@@ -13598,82 +13652,82 @@
     </row>
     <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B123" s="46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F123" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H123" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I123" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J123" s="46"/>
     </row>
     <row r="124" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C124" s="46"/>
       <c r="D124" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F124" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H124" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I124" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J124" s="46"/>
     </row>
     <row r="125" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B125" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C125" s="46"/>
       <c r="D125" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F125" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H125" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I125" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J125" s="46"/>
     </row>
     <row r="126" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B126" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C126" s="62"/>
       <c r="D126" s="62"/>
@@ -13686,10 +13740,10 @@
     </row>
     <row r="127" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B127" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C127" s="61" t="s">
         <v>397</v>
-      </c>
-      <c r="C127" s="61" t="s">
-        <v>398</v>
       </c>
       <c r="D127" s="51"/>
       <c r="E127" s="51"/>
@@ -13701,235 +13755,235 @@
     </row>
     <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C128" s="46"/>
       <c r="D128" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F128" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H128" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I128" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J128" s="46"/>
     </row>
     <row r="129" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C129" s="46"/>
       <c r="D129" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="E129" s="33" t="s">
         <v>436</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>437</v>
       </c>
       <c r="F129" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H129" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I129" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J129" s="46"/>
     </row>
     <row r="130" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C130" s="46"/>
       <c r="D130" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F130" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H130" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I130" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J130" s="46"/>
     </row>
     <row r="131" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F131" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H131" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I131" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J131" s="46"/>
     </row>
     <row r="132" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B132" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C132" s="46"/>
       <c r="D132" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F132" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I132" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J132" s="46"/>
     </row>
     <row r="133" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B133" s="46" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F133" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I133" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J133" s="46"/>
     </row>
     <row r="134" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C134" s="46"/>
       <c r="D134" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F134" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H134" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I134" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J134" s="46"/>
     </row>
     <row r="135" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>445</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>446</v>
       </c>
       <c r="F135" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H135" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J135" s="46"/>
     </row>
     <row r="136" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B136" s="46" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F136" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H136" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J136" s="46"/>
     </row>
     <row r="137" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B137" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C137" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D137" s="51"/>
       <c r="E137" s="51"/>
@@ -13941,157 +13995,157 @@
     </row>
     <row r="138" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F138" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H138" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I138" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J138" s="46"/>
     </row>
     <row r="139" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B139" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C139" s="46"/>
       <c r="D139" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F139" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H139" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I139" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J139" s="46"/>
     </row>
     <row r="140" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B140" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C140" s="46"/>
       <c r="D140" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F140" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H140" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I140" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J140" s="46"/>
     </row>
     <row r="141" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" s="46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C141" s="46"/>
       <c r="D141" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F141" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I141" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J141" s="46"/>
     </row>
     <row r="142" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B142" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C142" s="46"/>
       <c r="D142" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F142" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H142" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I142" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J142" s="46"/>
     </row>
     <row r="143" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C143" s="46"/>
       <c r="D143" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F143" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I143" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J143" s="46"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="62"/>
       <c r="D144" s="62"/>
@@ -14104,10 +14158,10 @@
     </row>
     <row r="145" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B145" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C145" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D145" s="51"/>
       <c r="E145" s="51"/>
@@ -14119,26 +14173,26 @@
     </row>
     <row r="146" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B146" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C146" s="46"/>
       <c r="D146" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F146" s="46" t="s">
         <v>97</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H146" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I146" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J146" s="46"/>
     </row>
@@ -14157,7 +14211,7 @@
     </row>
     <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B148" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C148" s="61"/>
       <c r="D148" s="59"/>
@@ -14205,7 +14259,7 @@
     </row>
     <row r="152" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B152" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="61"/>
       <c r="D152" s="59"/>
@@ -14465,22 +14519,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14488,7 +14542,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14499,7 +14553,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14507,7 +14561,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -14624,7 +14678,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="29" t="b">
         <v>1</v>
@@ -14635,7 +14689,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>74</v>
@@ -14646,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="28" t="b">
         <v>0</v>
@@ -14657,7 +14711,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="28" t="b">
         <v>0</v>
@@ -14668,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" s="28" t="b">
         <v>0</v>
@@ -14679,7 +14733,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" s="29" t="b">
         <v>1</v>
